--- a/图解/图解算法.xlsx
+++ b/图解/图解算法.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codehub\MyAlgorithm\图解\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951709B6-EA79-4378-ABB8-E43C727D411B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653084B6-9DAF-4FE9-A9B1-1C3E65B948DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2490" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="最长公共子序列" sheetId="1" r:id="rId1"/>
+    <sheet name="最长回文子序列" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +65,10 @@
   </si>
   <si>
     <t>s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,6 +710,235 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0750A71A-D1C3-A37D-BF0E-7D2A61CFF412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6299200" y="1320800"/>
+          <a:ext cx="12700" cy="1479550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{014AF7A4-E85B-5219-D4D1-F3AEA7B18680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3829050" y="3041650"/>
+          <a:ext cx="1593850" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="247632" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981B5D70-9602-FA1F-42BC-AF8631FDB9AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6330950" y="1930400"/>
+          <a:ext cx="247632" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
+            <a:t>i</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="250133" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C31829-51F6-315F-39E3-F44CDDE9242A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4483100" y="2990850"/>
+          <a:ext cx="250133" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1"/>
+            <a:t>j</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -973,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F4:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1349,4 +1583,187 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5361D1F6-33F4-448F-8FF7-7B4F53D47304}">
+  <dimension ref="F6:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="14" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="6:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/图解/图解算法.xlsx
+++ b/图解/图解算法.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\codehub\MyAlgorithm\图解\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653084B6-9DAF-4FE9-A9B1-1C3E65B948DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5912E50-D200-43B3-AC2D-7328947D1316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="2490" windowWidth="21840" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="最长公共子序列" sheetId="1" r:id="rId1"/>
@@ -939,6 +939,165 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D513E527-20F0-1D4A-5C2A-EDDD746891C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="2486025"/>
+          <a:ext cx="225425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5956C2-32DF-2F8A-7227-A48EFB2F2CE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5876925" y="2505075"/>
+          <a:ext cx="0" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A2A2B66-B76B-36CF-62B9-6F070020D374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4229100" y="1647825"/>
+          <a:ext cx="238125" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1590,7 +1749,7 @@
   <dimension ref="F6:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
